--- a/target/classes/questions.xlsx
+++ b/target/classes/questions.xlsx
@@ -537,7 +537,7 @@
         <v>19</v>
       </c>
       <c r="H2" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s" s="0">
         <v>20</v>
